--- a/untl-bs/data/SpreadVsUsage-2022-09-09.xlsx
+++ b/untl-bs/data/SpreadVsUsage-2022-09-09.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Documents\GitHub\portal-leading\untl-bs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1B3ACC-ECB8-4F90-A3A1-10B2D0B135E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35F71C-EA8E-404A-88C2-09C284318BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{ACCF4C12-144A-4352-8537-1877377D229A}"/>
+    <workbookView xWindow="-12255" yWindow="4905" windowWidth="20490" windowHeight="10920" xr2:uid="{ACCF4C12-144A-4352-8537-1877377D229A}"/>
   </bookViews>
   <sheets>
-    <sheet name="MainCategory" sheetId="1" r:id="rId1"/>
+    <sheet name="MainHeading" sheetId="1" r:id="rId1"/>
     <sheet name="FirstNT" sheetId="2" r:id="rId2"/>
     <sheet name="Comparison" sheetId="5" r:id="rId3"/>
+    <sheet name="FirstNT-10+Delta" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5265" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="1642">
   <si>
     <t>untlbsTerm</t>
   </si>
@@ -4958,6 +4959,12 @@
   </si>
   <si>
     <t>NarrowerTerms%(w/inBranch)</t>
+  </si>
+  <si>
+    <t>More NTs than occurrences</t>
+  </si>
+  <si>
+    <t>More occurrences than NTs</t>
   </si>
 </sst>
 </file>
@@ -4981,7 +4988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4994,8 +5001,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5128,11 +5147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5192,6 +5226,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5506,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B550A8CE-D9B8-40C7-A6BD-BA8905A483B2}">
-  <dimension ref="A1:J1168"/>
+  <dimension ref="A1:M1168"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="E1:J17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -5525,7 +5575,7 @@
     <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5553,8 +5603,14 @@
       <c r="J1" s="16" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="L1" s="25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2618</v>
       </c>
@@ -5581,12 +5637,12 @@
         <f t="shared" ref="I2:I17" si="1">H2/$H$18</f>
         <v>8.2713754646840151E-2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="27">
         <f t="shared" ref="J2:J17" si="2">ABS(I2-G2)</f>
         <v>0.43199604671424208</v>
       </c>
     </row>
-    <row r="3" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>489</v>
       </c>
@@ -5613,12 +5669,12 @@
         <f t="shared" si="1"/>
         <v>0.44888475836431224</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="28">
         <f t="shared" si="2"/>
         <v>0.26767569789400647</v>
       </c>
     </row>
-    <row r="4" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>154</v>
       </c>
@@ -5645,12 +5701,12 @@
         <f t="shared" si="1"/>
         <v>4.3680297397769519E-2</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="28">
         <f t="shared" si="2"/>
         <v>3.6849999925024517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>87</v>
       </c>
@@ -5677,12 +5733,12 @@
         <f t="shared" si="1"/>
         <v>4.2750929368029739E-2</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="28">
         <f t="shared" si="2"/>
         <v>3.1952104976944486E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>317</v>
       </c>
@@ -5709,12 +5765,12 @@
         <f t="shared" si="1"/>
         <v>7.342007434944238E-2</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="28">
         <f t="shared" si="2"/>
         <v>2.4086634096485295E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>281</v>
       </c>
@@ -5741,12 +5797,12 @@
         <f t="shared" si="1"/>
         <v>5.8550185873605949E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="28">
         <f t="shared" si="2"/>
         <v>1.9458562553744715E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>127</v>
       </c>
@@ -5773,12 +5829,12 @@
         <f t="shared" si="1"/>
         <v>2.6022304832713755E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="28">
         <f t="shared" si="2"/>
         <v>1.7399490650609126E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4459</v>
       </c>
@@ -5805,12 +5861,12 @@
         <f t="shared" si="1"/>
         <v>3.2527881040892194E-2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="28">
         <f t="shared" si="2"/>
         <v>1.6818473369847008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>207</v>
       </c>
@@ -5837,12 +5893,12 @@
         <f t="shared" si="1"/>
         <v>6.3197026022304828E-2</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="28">
         <f t="shared" si="2"/>
         <v>1.4036235614377661E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>84</v>
       </c>
@@ -5869,12 +5925,12 @@
         <f t="shared" si="1"/>
         <v>1.3940520446096654E-2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="27">
         <f t="shared" si="2"/>
         <v>1.3102943417893288E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>843</v>
       </c>
@@ -5901,12 +5957,12 @@
         <f t="shared" si="1"/>
         <v>2.8810408921933085E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="28">
         <f t="shared" si="2"/>
         <v>5.3578544473641132E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>429</v>
       </c>
@@ -5933,12 +5989,12 @@
         <f t="shared" si="1"/>
         <v>4.7397769516728624E-2</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="28">
         <f t="shared" si="2"/>
         <v>4.6630443618017464E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1970</v>
       </c>
@@ -5965,12 +6021,12 @@
         <f t="shared" si="1"/>
         <v>4.646840148698885E-3</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="28">
         <f t="shared" si="2"/>
         <v>4.1933534686603522E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>504</v>
       </c>
@@ -5997,12 +6053,12 @@
         <f t="shared" si="1"/>
         <v>8.3643122676579917E-3</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="28">
         <f t="shared" si="2"/>
         <v>2.9850339129021365E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1990</v>
       </c>
@@ -6029,7 +6085,7 @@
         <f t="shared" si="1"/>
         <v>2.3234200743494422E-2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="28">
         <f t="shared" si="2"/>
         <v>1.992378414990531E-3</v>
       </c>
@@ -6061,7 +6117,7 @@
         <f t="shared" si="1"/>
         <v>1.8587360594795538E-3</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="28">
         <f t="shared" si="2"/>
         <v>1.614883275358224E-3</v>
       </c>
@@ -6101,6 +6157,7 @@
         <v>1078</v>
       </c>
       <c r="E19" s="1"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -24227,18 +24284,18 @@
         <v>130</v>
       </c>
       <c r="G194" s="7">
-        <f t="shared" ref="G194:G257" si="9">F194/$F$213</f>
+        <f t="shared" ref="G194:G212" si="9">F194/$F$213</f>
         <v>2.2466946800689494E-5</v>
       </c>
       <c r="H194" s="6">
         <v>1</v>
       </c>
       <c r="I194" s="7">
-        <f t="shared" ref="I194:I257" si="10">H194/$H$213</f>
+        <f t="shared" ref="I194:I212" si="10">H194/$H$213</f>
         <v>9.2936802973977691E-4</v>
       </c>
       <c r="J194" s="19">
-        <f t="shared" ref="J194:J257" si="11">ABS(I194-G194)</f>
+        <f t="shared" ref="J194:J212" si="11">ABS(I194-G194)</f>
         <v>9.0690108293908745E-4</v>
       </c>
     </row>
@@ -38319,8 +38376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653799F2-7799-4442-B60A-9A044FA45D52}">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F237" sqref="A234:F237"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -40875,18 +40932,18 @@
         <v>47528</v>
       </c>
       <c r="J98" s="3">
-        <f>I98/$B$97</f>
+        <f t="shared" ref="J98:J118" si="17">I98/$B$97</f>
         <v>0.16649793138721419</v>
       </c>
       <c r="K98" s="2">
         <v>1</v>
       </c>
       <c r="L98" s="3">
-        <f>K98/$D$97</f>
+        <f t="shared" ref="L98:L118" si="18">K98/$D$97</f>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M98" s="3">
-        <f>ABS(L98-J98)</f>
+        <f t="shared" ref="M98:M118" si="19">ABS(L98-J98)</f>
         <v>0.15383970353911292</v>
       </c>
     </row>
@@ -40902,18 +40959,18 @@
         <v>43799</v>
       </c>
       <c r="J99" s="3">
-        <f>I99/$B$97</f>
+        <f t="shared" si="17"/>
         <v>0.15343466791846058</v>
       </c>
       <c r="K99" s="2">
         <v>21</v>
       </c>
       <c r="L99" s="3">
-        <f>K99/$D$97</f>
+        <f t="shared" si="18"/>
         <v>0.26582278481012656</v>
       </c>
       <c r="M99" s="3">
-        <f>ABS(L99-J99)</f>
+        <f t="shared" si="19"/>
         <v>0.11238811689166597</v>
       </c>
     </row>
@@ -40929,18 +40986,18 @@
         <v>42883</v>
       </c>
       <c r="J100" s="3">
-        <f>I100/$B$97</f>
+        <f t="shared" si="17"/>
         <v>0.15022577831337119</v>
       </c>
       <c r="K100" s="2">
         <v>21</v>
       </c>
       <c r="L100" s="3">
-        <f>K100/$D$97</f>
+        <f t="shared" si="18"/>
         <v>0.26582278481012656</v>
       </c>
       <c r="M100" s="3">
-        <f>ABS(L100-J100)</f>
+        <f t="shared" si="19"/>
         <v>0.11559700649675536</v>
       </c>
     </row>
@@ -40956,18 +41013,18 @@
         <v>42125</v>
       </c>
       <c r="J101" s="3">
-        <f>I101/$B$97</f>
+        <f t="shared" si="17"/>
         <v>0.14757038713361381</v>
       </c>
       <c r="K101" s="2">
         <v>1</v>
       </c>
       <c r="L101" s="3">
-        <f>K101/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M101" s="3">
-        <f>ABS(L101-J101)</f>
+        <f t="shared" si="19"/>
         <v>0.13491215928551253</v>
       </c>
     </row>
@@ -40983,18 +41040,18 @@
         <v>22707</v>
       </c>
       <c r="J102" s="3">
-        <f>I102/$B$97</f>
+        <f t="shared" si="17"/>
         <v>7.9546131291227756E-2</v>
       </c>
       <c r="K102" s="2">
         <v>1</v>
       </c>
       <c r="L102" s="3">
-        <f>K102/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M102" s="3">
-        <f>ABS(L102-J102)</f>
+        <f t="shared" si="19"/>
         <v>6.6887903443126492E-2</v>
       </c>
     </row>
@@ -41010,18 +41067,18 @@
         <v>15418</v>
       </c>
       <c r="J103" s="3">
-        <f>I103/$B$97</f>
+        <f t="shared" si="17"/>
         <v>5.4011637479550338E-2</v>
       </c>
       <c r="K103" s="2">
         <v>1</v>
       </c>
       <c r="L103" s="3">
-        <f>K103/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M103" s="3">
-        <f>ABS(L103-J103)</f>
+        <f t="shared" si="19"/>
         <v>4.1353409631449074E-2</v>
       </c>
     </row>
@@ -41037,18 +41094,18 @@
         <v>11695</v>
       </c>
       <c r="J104" s="3">
-        <f>I104/$B$97</f>
+        <f t="shared" si="17"/>
         <v>4.0969392938340975E-2</v>
       </c>
       <c r="K104" s="2">
         <v>4</v>
       </c>
       <c r="L104" s="3">
-        <f>K104/$D$97</f>
+        <f t="shared" si="18"/>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="M104" s="3">
-        <f>ABS(L104-J104)</f>
+        <f t="shared" si="19"/>
         <v>9.6635184540640878E-3</v>
       </c>
     </row>
@@ -41064,18 +41121,18 @@
         <v>7956</v>
       </c>
       <c r="J105" s="3">
-        <f>I105/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.7871097923680276E-2</v>
       </c>
       <c r="K105" s="2">
         <v>1</v>
       </c>
       <c r="L105" s="3">
-        <f>K105/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M105" s="3">
-        <f>ABS(L105-J105)</f>
+        <f t="shared" si="19"/>
         <v>1.521287007557901E-2</v>
       </c>
     </row>
@@ -41091,18 +41148,18 @@
         <v>7810</v>
       </c>
       <c r="J106" s="3">
-        <f>I106/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.7359637353436769E-2</v>
       </c>
       <c r="K106" s="2">
         <v>3</v>
       </c>
       <c r="L106" s="3">
-        <f>K106/$D$97</f>
+        <f t="shared" si="18"/>
         <v>3.7974683544303799E-2</v>
       </c>
       <c r="M106" s="3">
-        <f>ABS(L106-J106)</f>
+        <f t="shared" si="19"/>
         <v>1.061504619086703E-2</v>
       </c>
     </row>
@@ -41118,18 +41175,18 @@
         <v>6131</v>
       </c>
       <c r="J107" s="3">
-        <f>I107/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.1477840795636471E-2</v>
       </c>
       <c r="K107" s="2">
         <v>1</v>
       </c>
       <c r="L107" s="3">
-        <f>K107/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M107" s="3">
-        <f>ABS(L107-J107)</f>
+        <f t="shared" si="19"/>
         <v>8.8196129475352058E-3</v>
       </c>
     </row>
@@ -41145,18 +41202,18 @@
         <v>6063</v>
       </c>
       <c r="J108" s="3">
-        <f>I108/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.1239626283468264E-2</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
       </c>
       <c r="L108" s="3">
-        <f>K108/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M108" s="3">
-        <f>ABS(L108-J108)</f>
+        <f t="shared" si="19"/>
         <v>8.5813984353669982E-3</v>
       </c>
     </row>
@@ -41172,18 +41229,18 @@
         <v>5723</v>
       </c>
       <c r="J109" s="3">
-        <f>I109/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.0048553722627226E-2</v>
       </c>
       <c r="K109" s="2">
         <v>3</v>
       </c>
       <c r="L109" s="3">
-        <f>K109/$D$97</f>
+        <f t="shared" si="18"/>
         <v>3.7974683544303799E-2</v>
       </c>
       <c r="M109" s="3">
-        <f>ABS(L109-J109)</f>
+        <f t="shared" si="19"/>
         <v>1.7926129821676573E-2</v>
       </c>
     </row>
@@ -41199,18 +41256,18 @@
         <v>5630</v>
       </c>
       <c r="J110" s="3">
-        <f>I110/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.9722760345691294E-2</v>
       </c>
       <c r="K110" s="2">
         <v>1</v>
       </c>
       <c r="L110" s="3">
-        <f>K110/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M110" s="3">
-        <f>ABS(L110-J110)</f>
+        <f t="shared" si="19"/>
         <v>7.0645324975900283E-3</v>
       </c>
     </row>
@@ -41226,18 +41283,18 @@
         <v>5490</v>
       </c>
       <c r="J111" s="3">
-        <f>I111/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.9232318702992045E-2</v>
       </c>
       <c r="K111" s="2">
         <v>2</v>
       </c>
       <c r="L111" s="3">
-        <f>K111/$D$97</f>
+        <f t="shared" si="18"/>
         <v>2.5316455696202531E-2</v>
       </c>
       <c r="M111" s="3">
-        <f>ABS(L111-J111)</f>
+        <f t="shared" si="19"/>
         <v>6.0841369932104865E-3</v>
       </c>
     </row>
@@ -41253,18 +41310,18 @@
         <v>4456</v>
       </c>
       <c r="J112" s="3">
-        <f>I112/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.5610056856199006E-2</v>
       </c>
       <c r="K112" s="2">
         <v>1</v>
       </c>
       <c r="L112" s="3">
-        <f>K112/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M112" s="3">
-        <f>ABS(L112-J112)</f>
+        <f t="shared" si="19"/>
         <v>2.9518290080977408E-3</v>
       </c>
     </row>
@@ -41280,18 +41337,18 @@
         <v>4427</v>
       </c>
       <c r="J113" s="3">
-        <f>I113/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.5508465373068448E-2</v>
       </c>
       <c r="K113" s="2">
         <v>7</v>
       </c>
       <c r="L113" s="3">
-        <f>K113/$D$97</f>
+        <f t="shared" si="18"/>
         <v>8.8607594936708861E-2</v>
       </c>
       <c r="M113" s="3">
-        <f>ABS(L113-J113)</f>
+        <f t="shared" si="19"/>
         <v>7.3099129563640411E-2</v>
       </c>
     </row>
@@ -41307,18 +41364,18 @@
         <v>3105</v>
       </c>
       <c r="J114" s="3">
-        <f>I114/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.0877295004151239E-2</v>
       </c>
       <c r="K114" s="2">
         <v>4</v>
       </c>
       <c r="L114" s="3">
-        <f>K114/$D$97</f>
+        <f t="shared" si="18"/>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="M114" s="3">
-        <f>ABS(L114-J114)</f>
+        <f t="shared" si="19"/>
         <v>3.9755616388253825E-2</v>
       </c>
     </row>
@@ -41334,18 +41391,18 @@
         <v>972</v>
       </c>
       <c r="J115" s="3">
-        <f>I115/$B$97</f>
+        <f t="shared" si="17"/>
         <v>3.4050662621690833E-3</v>
       </c>
       <c r="K115" s="2">
         <v>1</v>
       </c>
       <c r="L115" s="3">
-        <f>K115/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M115" s="3">
-        <f>ABS(L115-J115)</f>
+        <f t="shared" si="19"/>
         <v>9.2531615859321823E-3</v>
       </c>
     </row>
@@ -41361,18 +41418,18 @@
         <v>706</v>
       </c>
       <c r="J116" s="3">
-        <f>I116/$B$97</f>
+        <f t="shared" si="17"/>
         <v>2.4732271410405071E-3</v>
       </c>
       <c r="K116" s="2">
         <v>2</v>
       </c>
       <c r="L116" s="3">
-        <f>K116/$D$97</f>
+        <f t="shared" si="18"/>
         <v>2.5316455696202531E-2</v>
       </c>
       <c r="M116" s="3">
-        <f>ABS(L116-J116)</f>
+        <f t="shared" si="19"/>
         <v>2.2843228555162024E-2</v>
       </c>
     </row>
@@ -41388,18 +41445,18 @@
         <v>423</v>
       </c>
       <c r="J117" s="3">
-        <f>I117/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.4818343918698788E-3</v>
       </c>
       <c r="K117" s="2">
         <v>1</v>
       </c>
       <c r="L117" s="3">
-        <f>K117/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M117" s="3">
-        <f>ABS(L117-J117)</f>
+        <f t="shared" si="19"/>
         <v>1.1176393456231387E-2</v>
       </c>
     </row>
@@ -41415,18 +41472,18 @@
         <v>410</v>
       </c>
       <c r="J118" s="3">
-        <f>I118/$B$97</f>
+        <f t="shared" si="17"/>
         <v>1.4362933821906627E-3</v>
       </c>
       <c r="K118" s="2">
         <v>1</v>
       </c>
       <c r="L118" s="3">
-        <f>K118/$D$97</f>
+        <f t="shared" si="18"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="M118" s="3">
-        <f>ABS(L118-J118)</f>
+        <f t="shared" si="19"/>
         <v>1.1221934465910603E-2</v>
       </c>
     </row>
@@ -41461,7 +41518,7 @@
     </row>
     <row r="121" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" ref="A121:A129" si="17">A120</f>
+        <f t="shared" ref="A121:A129" si="20">A120</f>
         <v>Education</v>
       </c>
       <c r="H121" t="s">
@@ -41471,24 +41528,24 @@
         <v>132160</v>
       </c>
       <c r="J121" s="3">
-        <f>I121/$B$120</f>
+        <f t="shared" ref="J121:J129" si="21">I121/$B$120</f>
         <v>0.58427463029686777</v>
       </c>
       <c r="K121" s="2">
         <v>48</v>
       </c>
       <c r="L121" s="3">
-        <f>K121/$D$120</f>
+        <f t="shared" ref="L121:L129" si="22">K121/$D$120</f>
         <v>0.76190476190476186</v>
       </c>
       <c r="M121" s="3">
-        <f>ABS(L121-J121)</f>
+        <f t="shared" ref="M121:M129" si="23">ABS(L121-J121)</f>
         <v>0.17763013160789409</v>
       </c>
     </row>
     <row r="122" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H122" t="s">
@@ -41498,24 +41555,24 @@
         <v>73988</v>
       </c>
       <c r="J122" s="3">
-        <f>I122/$B$120</f>
+        <f t="shared" si="21"/>
         <v>0.32709830013926039</v>
       </c>
       <c r="K122" s="2">
         <v>7</v>
       </c>
       <c r="L122" s="3">
-        <f>K122/$D$120</f>
+        <f t="shared" si="22"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M122" s="3">
-        <f>ABS(L122-J122)</f>
+        <f t="shared" si="23"/>
         <v>0.21598718902814928</v>
       </c>
     </row>
     <row r="123" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H123" t="s">
@@ -41525,24 +41582,24 @@
         <v>8549</v>
       </c>
       <c r="J123" s="3">
-        <f>I123/$B$120</f>
+        <f t="shared" si="21"/>
         <v>3.7794823050907402E-2</v>
       </c>
       <c r="K123" s="2">
         <v>2</v>
       </c>
       <c r="L123" s="3">
-        <f>K123/$D$120</f>
+        <f t="shared" si="22"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="M123" s="3">
-        <f>ABS(L123-J123)</f>
+        <f t="shared" si="23"/>
         <v>6.0487913048756572E-3</v>
       </c>
     </row>
     <row r="124" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H124" s="21" t="s">
@@ -41552,24 +41609,24 @@
         <v>5967</v>
       </c>
       <c r="J124" s="3">
-        <f>I124/$B$120</f>
+        <f t="shared" si="21"/>
         <v>2.6379893454762483E-2</v>
       </c>
       <c r="K124" s="2">
         <v>1</v>
       </c>
       <c r="L124" s="3">
-        <f>K124/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M124" s="3">
-        <f>ABS(L124-J124)</f>
+        <f t="shared" si="23"/>
         <v>1.050687758174661E-2</v>
       </c>
     </row>
     <row r="125" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H125" t="s">
@@ -41579,24 +41636,24 @@
         <v>2030</v>
       </c>
       <c r="J125" s="3">
-        <f>I125/$B$120</f>
+        <f t="shared" si="21"/>
         <v>8.9745573509582444E-3</v>
       </c>
       <c r="K125" s="2">
         <v>1</v>
       </c>
       <c r="L125" s="3">
-        <f>K125/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M125" s="3">
-        <f>ABS(L125-J125)</f>
+        <f t="shared" si="23"/>
         <v>6.8984585220576277E-3</v>
       </c>
     </row>
     <row r="126" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H126" t="s">
@@ -41606,24 +41663,24 @@
         <v>1610</v>
       </c>
       <c r="J126" s="3">
-        <f>I126/$B$120</f>
+        <f t="shared" si="21"/>
         <v>7.1177523817944691E-3</v>
       </c>
       <c r="K126" s="2">
         <v>1</v>
       </c>
       <c r="L126" s="3">
-        <f>K126/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M126" s="3">
-        <f>ABS(L126-J126)</f>
+        <f t="shared" si="23"/>
         <v>8.7552634912214031E-3</v>
       </c>
     </row>
     <row r="127" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H127" t="s">
@@ -41633,24 +41690,24 @@
         <v>1362</v>
       </c>
       <c r="J127" s="3">
-        <f>I127/$B$120</f>
+        <f t="shared" si="21"/>
         <v>6.0213532571453832E-3</v>
       </c>
       <c r="K127" s="2">
         <v>1</v>
       </c>
       <c r="L127" s="3">
-        <f>K127/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M127" s="3">
-        <f>ABS(L127-J127)</f>
+        <f t="shared" si="23"/>
         <v>9.8516626158704889E-3</v>
       </c>
     </row>
     <row r="128" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H128" t="s">
@@ -41660,24 +41717,24 @@
         <v>467</v>
       </c>
       <c r="J128" s="3">
-        <f>I128/$B$120</f>
+        <f t="shared" si="21"/>
         <v>2.0645902871416254E-3</v>
       </c>
       <c r="K128" s="2">
         <v>1</v>
       </c>
       <c r="L128" s="3">
-        <f>K128/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M128" s="3">
-        <f>ABS(L128-J128)</f>
+        <f t="shared" si="23"/>
         <v>1.3808425585874248E-2</v>
       </c>
     </row>
     <row r="129" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Education</v>
       </c>
       <c r="H129" t="s">
@@ -41687,18 +41744,18 @@
         <v>62</v>
       </c>
       <c r="J129" s="3">
-        <f>I129/$B$120</f>
+        <f t="shared" si="21"/>
         <v>2.7409978116227151E-4</v>
       </c>
       <c r="K129" s="2">
         <v>1</v>
       </c>
       <c r="L129" s="3">
-        <f>K129/$D$120</f>
+        <f t="shared" si="22"/>
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="M129" s="3">
-        <f>ABS(L129-J129)</f>
+        <f t="shared" si="23"/>
         <v>1.55989160918536E-2</v>
       </c>
     </row>
@@ -41733,7 +41790,7 @@
     </row>
     <row r="132" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A139" si="18">A131</f>
+        <f t="shared" ref="A132:A139" si="24">A131</f>
         <v>Religion</v>
       </c>
       <c r="H132" t="s">
@@ -41743,24 +41800,24 @@
         <v>476</v>
       </c>
       <c r="J132" s="3">
-        <f>I132/$B$131</f>
+        <f t="shared" ref="J132:J139" si="25">I132/$B$131</f>
         <v>9.5402252775884881E-3</v>
       </c>
       <c r="K132" s="2">
         <v>5</v>
       </c>
       <c r="L132" s="3">
-        <f>K132/$D$131</f>
+        <f t="shared" ref="L132:L139" si="26">K132/$D$131</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="M132" s="3">
-        <f>ABS(L132-J132)</f>
+        <f t="shared" ref="M132:M139" si="27">ABS(L132-J132)</f>
         <v>0.16903120329384008</v>
       </c>
     </row>
     <row r="133" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H133" t="s">
@@ -41770,24 +41827,24 @@
         <v>29526</v>
       </c>
       <c r="J133" s="3">
-        <f>I133/$B$131</f>
+        <f t="shared" si="25"/>
         <v>0.59177456207159174</v>
       </c>
       <c r="K133" s="2">
         <v>13</v>
       </c>
       <c r="L133" s="3">
-        <f>K133/$D$131</f>
+        <f t="shared" si="26"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="M133" s="3">
-        <f>ABS(L133-J133)</f>
+        <f t="shared" si="27"/>
         <v>0.12748884778587743</v>
       </c>
     </row>
     <row r="134" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H134" s="21" t="s">
@@ -41797,24 +41854,24 @@
         <v>5906</v>
       </c>
       <c r="J134" s="3">
-        <f>I134/$B$131</f>
+        <f t="shared" si="25"/>
         <v>0.11837094640638153</v>
       </c>
       <c r="K134" s="2">
         <v>1</v>
       </c>
       <c r="L134" s="3">
-        <f>K134/$D$131</f>
+        <f t="shared" si="26"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M134" s="3">
-        <f>ABS(L134-J134)</f>
+        <f t="shared" si="27"/>
         <v>8.2656660692095818E-2</v>
       </c>
     </row>
     <row r="135" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H135" t="s">
@@ -41824,24 +41881,24 @@
         <v>10856</v>
       </c>
       <c r="J135" s="3">
-        <f>I135/$B$131</f>
+        <f t="shared" si="25"/>
         <v>0.2175812722972702</v>
       </c>
       <c r="K135" s="2">
         <v>5</v>
       </c>
       <c r="L135" s="3">
-        <f>K135/$D$131</f>
+        <f t="shared" si="26"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="M135" s="3">
-        <f>ABS(L135-J135)</f>
+        <f t="shared" si="27"/>
         <v>3.9009843725841625E-2</v>
       </c>
     </row>
     <row r="136" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H136" t="s">
@@ -41851,24 +41908,24 @@
         <v>31</v>
       </c>
       <c r="J136" s="3">
-        <f>I136/$B$131</f>
+        <f t="shared" si="25"/>
         <v>6.2131719244798976E-4</v>
       </c>
       <c r="K136" s="2">
         <v>1</v>
       </c>
       <c r="L136" s="3">
-        <f>K136/$D$131</f>
+        <f t="shared" si="26"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M136" s="3">
-        <f>ABS(L136-J136)</f>
+        <f t="shared" si="27"/>
         <v>3.5092968521837721E-2</v>
       </c>
     </row>
     <row r="137" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H137" t="s">
@@ -41878,24 +41935,24 @@
         <v>80</v>
       </c>
       <c r="J137" s="3">
-        <f>I137/$B$131</f>
+        <f t="shared" si="25"/>
         <v>1.6033992063173928E-3</v>
       </c>
       <c r="K137" s="2">
         <v>1</v>
       </c>
       <c r="L137" s="3">
-        <f>K137/$D$131</f>
+        <f t="shared" si="26"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M137" s="3">
-        <f>ABS(L137-J137)</f>
+        <f t="shared" si="27"/>
         <v>3.411088650796832E-2</v>
       </c>
     </row>
     <row r="138" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H138" t="s">
@@ -41905,24 +41962,24 @@
         <v>361</v>
       </c>
       <c r="J138" s="3">
-        <f>I138/$B$131</f>
+        <f t="shared" si="25"/>
         <v>7.2353389185072356E-3</v>
       </c>
       <c r="K138" s="2">
         <v>1</v>
       </c>
       <c r="L138" s="3">
-        <f>K138/$D$131</f>
+        <f t="shared" si="26"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M138" s="3">
-        <f>ABS(L138-J138)</f>
+        <f t="shared" si="27"/>
         <v>2.8478946795778476E-2</v>
       </c>
     </row>
     <row r="139" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Religion</v>
       </c>
       <c r="H139" t="s">
@@ -41932,18 +41989,18 @@
         <v>2658</v>
       </c>
       <c r="J139" s="3">
-        <f>I139/$B$131</f>
+        <f t="shared" si="25"/>
         <v>5.3272938629895378E-2</v>
       </c>
       <c r="K139" s="2">
         <v>1</v>
       </c>
       <c r="L139" s="3">
-        <f>K139/$D$131</f>
+        <f t="shared" si="26"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="M139" s="3">
-        <f>ABS(L139-J139)</f>
+        <f t="shared" si="27"/>
         <v>1.7558652915609665E-2</v>
       </c>
     </row>
@@ -41978,7 +42035,7 @@
     </row>
     <row r="142" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" ref="A142:A152" si="19">A141</f>
+        <f t="shared" ref="A142:A152" si="28">A141</f>
         <v>Military and War</v>
       </c>
       <c r="H142" t="s">
@@ -41988,24 +42045,24 @@
         <v>27492</v>
       </c>
       <c r="J142" s="3">
-        <f>I142/$B$141</f>
+        <f t="shared" ref="J142:J152" si="29">I142/$B$141</f>
         <v>0.30244557145843187</v>
       </c>
       <c r="K142" s="2">
         <v>11</v>
       </c>
       <c r="L142" s="3">
-        <f>K142/$D$141</f>
+        <f t="shared" ref="L142:L152" si="30">K142/$D$141</f>
         <v>0.31428571428571428</v>
       </c>
       <c r="M142" s="3">
-        <f>ABS(L142-J142)</f>
+        <f t="shared" ref="M142:M152" si="31">ABS(L142-J142)</f>
         <v>1.1840142827282407E-2</v>
       </c>
     </row>
     <row r="143" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H143" t="s">
@@ -42015,24 +42072,24 @@
         <v>18205</v>
       </c>
       <c r="J143" s="3">
-        <f>I143/$B$141</f>
+        <f t="shared" si="29"/>
         <v>0.20027723077261575</v>
       </c>
       <c r="K143" s="2">
         <v>2</v>
       </c>
       <c r="L143" s="3">
-        <f>K143/$D$141</f>
+        <f t="shared" si="30"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="M143" s="3">
-        <f>ABS(L143-J143)</f>
+        <f t="shared" si="31"/>
         <v>0.14313437362975862</v>
       </c>
     </row>
     <row r="144" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H144" t="s">
@@ -42042,24 +42099,24 @@
         <v>17814</v>
       </c>
       <c r="J144" s="3">
-        <f>I144/$B$141</f>
+        <f t="shared" si="29"/>
         <v>0.19597575330861725</v>
       </c>
       <c r="K144" s="2">
         <v>6</v>
       </c>
       <c r="L144" s="3">
-        <f>K144/$D$141</f>
+        <f t="shared" si="30"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="M144" s="3">
-        <f>ABS(L144-J144)</f>
+        <f t="shared" si="31"/>
         <v>2.4547181880045815E-2</v>
       </c>
     </row>
     <row r="145" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H145" t="s">
@@ -42069,24 +42126,24 @@
         <v>11251</v>
       </c>
       <c r="J145" s="3">
-        <f>I145/$B$141</f>
+        <f t="shared" si="29"/>
         <v>0.12377473899602856</v>
       </c>
       <c r="K145" s="2">
         <v>5</v>
       </c>
       <c r="L145" s="3">
-        <f>K145/$D$141</f>
+        <f t="shared" si="30"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M145" s="3">
-        <f>ABS(L145-J145)</f>
+        <f t="shared" si="31"/>
         <v>1.9082403861114289E-2</v>
       </c>
     </row>
     <row r="146" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H146" t="s">
@@ -42096,24 +42153,24 @@
         <v>4562</v>
       </c>
       <c r="J146" s="3">
-        <f>I146/$B$141</f>
+        <f t="shared" si="29"/>
         <v>5.0187570820361058E-2</v>
       </c>
       <c r="K146" s="2">
         <v>1</v>
       </c>
       <c r="L146" s="3">
-        <f>K146/$D$141</f>
+        <f t="shared" si="30"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M146" s="3">
-        <f>ABS(L146-J146)</f>
+        <f t="shared" si="31"/>
         <v>2.1616142248932487E-2</v>
       </c>
     </row>
     <row r="147" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H147" t="s">
@@ -42123,24 +42180,24 @@
         <v>2809</v>
       </c>
       <c r="J147" s="3">
-        <f>I147/$B$141</f>
+        <f t="shared" si="29"/>
         <v>3.0902430169748842E-2</v>
       </c>
       <c r="K147" s="2">
         <v>4</v>
       </c>
       <c r="L147" s="3">
-        <f>K147/$D$141</f>
+        <f t="shared" si="30"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="M147" s="3">
-        <f>ABS(L147-J147)</f>
+        <f t="shared" si="31"/>
         <v>8.3383284115965434E-2</v>
       </c>
     </row>
     <row r="148" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H148" s="21" t="s">
@@ -42150,24 +42207,24 @@
         <v>2285</v>
       </c>
       <c r="J148" s="3">
-        <f>I148/$B$141</f>
+        <f t="shared" si="29"/>
         <v>2.5137790294722715E-2</v>
       </c>
       <c r="K148" s="2">
         <v>1</v>
       </c>
       <c r="L148" s="3">
-        <f>K148/$D$141</f>
+        <f t="shared" si="30"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M148" s="3">
-        <f>ABS(L148-J148)</f>
+        <f t="shared" si="31"/>
         <v>3.4336382767058554E-3</v>
       </c>
     </row>
     <row r="149" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H149" t="s">
@@ -42177,24 +42234,24 @@
         <v>2245</v>
       </c>
       <c r="J149" s="3">
-        <f>I149/$B$141</f>
+        <f t="shared" si="29"/>
         <v>2.4697741449300873E-2</v>
       </c>
       <c r="K149" s="2">
         <v>1</v>
       </c>
       <c r="L149" s="3">
-        <f>K149/$D$141</f>
+        <f t="shared" si="30"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M149" s="3">
-        <f>ABS(L149-J149)</f>
+        <f t="shared" si="31"/>
         <v>3.8736871221276975E-3</v>
       </c>
     </row>
     <row r="150" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H150" t="s">
@@ -42204,24 +42261,24 @@
         <v>2094</v>
       </c>
       <c r="J150" s="3">
-        <f>I150/$B$141</f>
+        <f t="shared" si="29"/>
         <v>2.3036557057833418E-2</v>
       </c>
       <c r="K150" s="2">
         <v>1</v>
       </c>
       <c r="L150" s="3">
-        <f>K150/$D$141</f>
+        <f t="shared" si="30"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M150" s="3">
-        <f>ABS(L150-J150)</f>
+        <f t="shared" si="31"/>
         <v>5.5348715135951528E-3</v>
       </c>
     </row>
     <row r="151" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H151" t="s">
@@ -42231,24 +42288,24 @@
         <v>2092</v>
       </c>
       <c r="J151" s="3">
-        <f>I151/$B$141</f>
+        <f t="shared" si="29"/>
         <v>2.3014554615562326E-2</v>
       </c>
       <c r="K151" s="2">
         <v>2</v>
       </c>
       <c r="L151" s="3">
-        <f>K151/$D$141</f>
+        <f t="shared" si="30"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="M151" s="3">
-        <f>ABS(L151-J151)</f>
+        <f t="shared" si="31"/>
         <v>3.4128302527294818E-2</v>
       </c>
     </row>
     <row r="152" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>Military and War</v>
       </c>
       <c r="H152" t="s">
@@ -42258,18 +42315,18 @@
         <v>50</v>
       </c>
       <c r="J152" s="3">
-        <f>I152/$B$141</f>
+        <f t="shared" si="29"/>
         <v>5.5006105677730228E-4</v>
       </c>
       <c r="K152" s="2">
         <v>1</v>
       </c>
       <c r="L152" s="3">
-        <f>K152/$D$141</f>
+        <f t="shared" si="30"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="M152" s="3">
-        <f>ABS(L152-J152)</f>
+        <f t="shared" si="31"/>
         <v>2.8021367514651268E-2</v>
       </c>
     </row>
@@ -42304,7 +42361,7 @@
     </row>
     <row r="155" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" ref="A155:A161" si="20">A154</f>
+        <f t="shared" ref="A155:A161" si="32">A154</f>
         <v>People</v>
       </c>
       <c r="H155" t="s">
@@ -42314,24 +42371,24 @@
         <v>158187</v>
       </c>
       <c r="J155" s="3">
-        <f>I155/$B$154</f>
+        <f t="shared" ref="J155:J161" si="33">I155/$B$154</f>
         <v>0.55609967025008966</v>
       </c>
       <c r="K155" s="2">
         <v>17</v>
       </c>
       <c r="L155" s="3">
-        <f>K155/$D$154</f>
+        <f t="shared" ref="L155:L161" si="34">K155/$D$154</f>
         <v>0.25</v>
       </c>
       <c r="M155" s="3">
-        <f>ABS(L155-J155)</f>
+        <f t="shared" ref="M155:M161" si="35">ABS(L155-J155)</f>
         <v>0.30609967025008966</v>
       </c>
     </row>
     <row r="156" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H156" t="s">
@@ -42341,24 +42398,24 @@
         <v>59265</v>
       </c>
       <c r="J156" s="3">
-        <f>I156/$B$154</f>
+        <f t="shared" si="33"/>
         <v>0.20834358675094389</v>
       </c>
       <c r="K156" s="2">
         <v>45</v>
       </c>
       <c r="L156" s="3">
-        <f>K156/$D$154</f>
+        <f t="shared" si="34"/>
         <v>0.66176470588235292</v>
       </c>
       <c r="M156" s="3">
-        <f>ABS(L156-J156)</f>
+        <f t="shared" si="35"/>
         <v>0.45342111913140903</v>
       </c>
     </row>
     <row r="157" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H157" t="s">
@@ -42368,24 +42425,24 @@
         <v>22327</v>
       </c>
       <c r="J157" s="3">
-        <f>I157/$B$154</f>
+        <f t="shared" si="33"/>
         <v>7.8489618854101481E-2</v>
       </c>
       <c r="K157" s="2">
         <v>2</v>
       </c>
       <c r="L157" s="3">
-        <f>K157/$D$154</f>
+        <f t="shared" si="34"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="M157" s="3">
-        <f>ABS(L157-J157)</f>
+        <f t="shared" si="35"/>
         <v>4.9077854148219129E-2</v>
       </c>
     </row>
     <row r="158" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H158" s="21" t="s">
@@ -42395,24 +42452,24 @@
         <v>20789</v>
       </c>
       <c r="J158" s="3">
-        <f>I158/$B$154</f>
+        <f t="shared" si="33"/>
         <v>7.3082845270655075E-2</v>
       </c>
       <c r="K158" s="2">
         <v>1</v>
       </c>
       <c r="L158" s="3">
-        <f>K158/$D$154</f>
+        <f t="shared" si="34"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="M158" s="3">
-        <f>ABS(L158-J158)</f>
+        <f t="shared" si="35"/>
         <v>5.8376962917713895E-2</v>
       </c>
     </row>
     <row r="159" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H159" t="s">
@@ -42422,24 +42479,24 @@
         <v>19311</v>
       </c>
       <c r="J159" s="3">
-        <f>I159/$B$154</f>
+        <f t="shared" si="33"/>
         <v>6.7886999135197468E-2</v>
       </c>
       <c r="K159" s="2">
         <v>1</v>
       </c>
       <c r="L159" s="3">
-        <f>K159/$D$154</f>
+        <f t="shared" si="34"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="M159" s="3">
-        <f>ABS(L159-J159)</f>
+        <f t="shared" si="35"/>
         <v>5.3181116782256288E-2</v>
       </c>
     </row>
     <row r="160" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H160" t="s">
@@ -42449,24 +42506,24 @@
         <v>4138</v>
       </c>
       <c r="J160" s="3">
-        <f>I160/$B$154</f>
+        <f t="shared" si="33"/>
         <v>1.4546962996294708E-2</v>
       </c>
       <c r="K160" s="2">
         <v>1</v>
       </c>
       <c r="L160" s="3">
-        <f>K160/$D$154</f>
+        <f t="shared" si="34"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="M160" s="3">
-        <f>ABS(L160-J160)</f>
+        <f t="shared" si="35"/>
         <v>1.5891935664646799E-4</v>
       </c>
     </row>
     <row r="161" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>People</v>
       </c>
       <c r="H161" t="s">
@@ -42476,18 +42533,18 @@
         <v>441</v>
       </c>
       <c r="J161" s="3">
-        <f>I161/$B$154</f>
+        <f t="shared" si="33"/>
         <v>1.5503167427177299E-3</v>
       </c>
       <c r="K161" s="2">
         <v>1</v>
       </c>
       <c r="L161" s="3">
-        <f>K161/$D$154</f>
+        <f t="shared" si="34"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="M161" s="3">
-        <f>ABS(L161-J161)</f>
+        <f t="shared" si="35"/>
         <v>1.3155565610223446E-2</v>
       </c>
     </row>
@@ -42522,7 +42579,7 @@
     </row>
     <row r="164" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" ref="A164:A171" si="21">A163</f>
+        <f t="shared" ref="A164:A171" si="36">A163</f>
         <v>Architecture</v>
       </c>
       <c r="H164" t="s">
@@ -42532,24 +42589,24 @@
         <v>115444</v>
       </c>
       <c r="J164" s="3">
-        <f>I164/$B$163</f>
+        <f t="shared" ref="J164:J171" si="37">I164/$B$163</f>
         <v>0.73775090905605156</v>
       </c>
       <c r="K164" s="2">
         <v>1</v>
       </c>
       <c r="L164" s="3">
-        <f>K164/$D$163</f>
+        <f t="shared" ref="L164:L171" si="38">K164/$D$163</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M164" s="3">
-        <f>ABS(L164-J164)</f>
+        <f t="shared" ref="M164:M171" si="39">ABS(L164-J164)</f>
         <v>0.67108424238938491</v>
       </c>
     </row>
     <row r="165" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H165" t="s">
@@ -42559,24 +42616,24 @@
         <v>14445</v>
       </c>
       <c r="J165" s="3">
-        <f>I165/$B$163</f>
+        <f t="shared" si="37"/>
         <v>9.2311526639016872E-2</v>
       </c>
       <c r="K165" s="2">
         <v>5</v>
       </c>
       <c r="L165" s="3">
-        <f>K165/$D$163</f>
+        <f t="shared" si="38"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M165" s="3">
-        <f>ABS(L165-J165)</f>
+        <f t="shared" si="39"/>
         <v>0.24102180669431644</v>
       </c>
     </row>
     <row r="166" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H166" t="s">
@@ -42586,24 +42643,24 @@
         <v>8417</v>
       </c>
       <c r="J166" s="3">
-        <f>I166/$B$163</f>
+        <f t="shared" si="37"/>
         <v>5.3789277931506063E-2</v>
       </c>
       <c r="K166" s="2">
         <v>1</v>
       </c>
       <c r="L166" s="3">
-        <f>K166/$D$163</f>
+        <f t="shared" si="38"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M166" s="3">
-        <f>ABS(L166-J166)</f>
+        <f t="shared" si="39"/>
         <v>1.2877388735160603E-2</v>
       </c>
     </row>
     <row r="167" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H167" s="21" t="s">
@@ -42613,24 +42670,24 @@
         <v>7855</v>
       </c>
       <c r="J167" s="3">
-        <f>I167/$B$163</f>
+        <f t="shared" si="37"/>
         <v>5.0197787590825722E-2</v>
       </c>
       <c r="K167" s="2">
         <v>1</v>
       </c>
       <c r="L167" s="3">
-        <f>K167/$D$163</f>
+        <f t="shared" si="38"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M167" s="3">
-        <f>ABS(L167-J167)</f>
+        <f t="shared" si="39"/>
         <v>1.6468879075840943E-2</v>
       </c>
     </row>
     <row r="168" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H168" t="s">
@@ -42640,24 +42697,24 @@
         <v>4743</v>
       </c>
       <c r="J168" s="3">
-        <f>I168/$B$163</f>
+        <f t="shared" si="37"/>
         <v>3.0310389120723921E-2</v>
       </c>
       <c r="K168" s="2">
         <v>4</v>
       </c>
       <c r="L168" s="3">
-        <f>K168/$D$163</f>
+        <f t="shared" si="38"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M168" s="3">
-        <f>ABS(L168-J168)</f>
+        <f t="shared" si="39"/>
         <v>0.23635627754594274</v>
       </c>
     </row>
     <row r="169" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H169" t="s">
@@ -42667,24 +42724,24 @@
         <v>2283</v>
       </c>
       <c r="J169" s="3">
-        <f>I169/$B$163</f>
+        <f t="shared" si="37"/>
         <v>1.4589630689987922E-2</v>
       </c>
       <c r="K169" s="2">
         <v>1</v>
       </c>
       <c r="L169" s="3">
-        <f>K169/$D$163</f>
+        <f t="shared" si="38"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M169" s="3">
-        <f>ABS(L169-J169)</f>
+        <f t="shared" si="39"/>
         <v>5.2077035976678746E-2</v>
       </c>
     </row>
     <row r="170" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H170" t="s">
@@ -42694,24 +42751,24 @@
         <v>2226</v>
       </c>
       <c r="J170" s="3">
-        <f>I170/$B$163</f>
+        <f t="shared" si="37"/>
         <v>1.4225369214153795E-2</v>
       </c>
       <c r="K170" s="2">
         <v>1</v>
       </c>
       <c r="L170" s="3">
-        <f>K170/$D$163</f>
+        <f t="shared" si="38"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M170" s="3">
-        <f>ABS(L170-J170)</f>
+        <f t="shared" si="39"/>
         <v>5.2441297452512872E-2</v>
       </c>
     </row>
     <row r="171" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>Architecture</v>
       </c>
       <c r="H171" t="s">
@@ -42721,18 +42778,18 @@
         <v>1068</v>
       </c>
       <c r="J171" s="3">
-        <f>I171/$B$163</f>
+        <f t="shared" si="37"/>
         <v>6.8251097577341656E-3</v>
       </c>
       <c r="K171" s="2">
         <v>1</v>
       </c>
       <c r="L171" s="3">
-        <f>K171/$D$163</f>
+        <f t="shared" si="38"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M171" s="3">
-        <f>ABS(L171-J171)</f>
+        <f t="shared" si="39"/>
         <v>5.9841556908932503E-2</v>
       </c>
     </row>
@@ -42767,7 +42824,7 @@
     </row>
     <row r="174" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" ref="A174:A189" si="22">A173</f>
+        <f t="shared" ref="A174:A189" si="40">A173</f>
         <v>Landscape and Nature</v>
       </c>
       <c r="H174" t="s">
@@ -42777,24 +42834,24 @@
         <v>85334</v>
       </c>
       <c r="J174" s="3">
-        <f>I174/$B$173</f>
+        <f t="shared" ref="J174:J189" si="41">I174/$B$173</f>
         <v>0.62882913421221343</v>
       </c>
       <c r="K174" s="2">
         <v>1</v>
       </c>
       <c r="L174" s="3">
-        <f>K174/$D$173</f>
+        <f t="shared" ref="L174:L189" si="42">K174/$D$173</f>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M174" s="3">
-        <f>ABS(L174-J174)</f>
+        <f t="shared" ref="M174:M189" si="43">ABS(L174-J174)</f>
         <v>0.59657106969608442</v>
       </c>
     </row>
     <row r="175" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H175" t="s">
@@ -42804,24 +42861,24 @@
         <v>11854</v>
       </c>
       <c r="J175" s="3">
-        <f>I175/$B$173</f>
+        <f t="shared" si="41"/>
         <v>8.7352527210157474E-2</v>
       </c>
       <c r="K175" s="2">
         <v>9</v>
       </c>
       <c r="L175" s="3">
-        <f>K175/$D$173</f>
+        <f t="shared" si="42"/>
         <v>0.29032258064516131</v>
       </c>
       <c r="M175" s="3">
-        <f>ABS(L175-J175)</f>
+        <f t="shared" si="43"/>
         <v>0.20297005343500385</v>
       </c>
     </row>
     <row r="176" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H176" t="s">
@@ -42831,24 +42888,24 @@
         <v>11989</v>
       </c>
       <c r="J176" s="3">
-        <f>I176/$B$173</f>
+        <f t="shared" si="41"/>
         <v>8.8347346779363761E-2</v>
       </c>
       <c r="K176" s="2">
         <v>8</v>
       </c>
       <c r="L176" s="3">
-        <f>K176/$D$173</f>
+        <f t="shared" si="42"/>
         <v>0.25806451612903225</v>
       </c>
       <c r="M176" s="3">
-        <f>ABS(L176-J176)</f>
+        <f t="shared" si="43"/>
         <v>0.16971716934966849</v>
       </c>
     </row>
     <row r="177" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H177" t="s">
@@ -42858,24 +42915,24 @@
         <v>95</v>
       </c>
       <c r="J177" s="3">
-        <f>I177/$B$173</f>
+        <f t="shared" si="41"/>
         <v>7.0005821536738315E-4</v>
       </c>
       <c r="K177" s="2">
         <v>1</v>
       </c>
       <c r="L177" s="3">
-        <f>K177/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M177" s="3">
-        <f>ABS(L177-J177)</f>
+        <f t="shared" si="43"/>
         <v>3.1558006300761651E-2</v>
       </c>
     </row>
     <row r="178" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H178" t="s">
@@ -42885,24 +42942,24 @@
         <v>195</v>
       </c>
       <c r="J178" s="3">
-        <f>I178/$B$173</f>
+        <f t="shared" si="41"/>
         <v>1.4369615999646286E-3</v>
       </c>
       <c r="K178" s="2">
         <v>1</v>
       </c>
       <c r="L178" s="3">
-        <f>K178/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M178" s="3">
-        <f>ABS(L178-J178)</f>
+        <f t="shared" si="43"/>
         <v>3.0821102916164404E-2</v>
       </c>
     </row>
     <row r="179" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H179" t="s">
@@ -42912,24 +42969,24 @@
         <v>500</v>
       </c>
       <c r="J179" s="3">
-        <f>I179/$B$173</f>
+        <f t="shared" si="41"/>
         <v>3.6845169229862275E-3</v>
       </c>
       <c r="K179" s="2">
         <v>1</v>
       </c>
       <c r="L179" s="3">
-        <f>K179/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M179" s="3">
-        <f>ABS(L179-J179)</f>
+        <f t="shared" si="43"/>
         <v>2.8573547593142803E-2</v>
       </c>
     </row>
     <row r="180" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H180" t="s">
@@ -42939,24 +42996,24 @@
         <v>505</v>
       </c>
       <c r="J180" s="3">
-        <f>I180/$B$173</f>
+        <f t="shared" si="41"/>
         <v>3.7213620922160896E-3</v>
       </c>
       <c r="K180" s="2">
         <v>1</v>
       </c>
       <c r="L180" s="3">
-        <f>K180/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M180" s="3">
-        <f>ABS(L180-J180)</f>
+        <f t="shared" si="43"/>
         <v>2.8536702423912944E-2</v>
       </c>
     </row>
     <row r="181" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H181" t="s">
@@ -42966,24 +43023,24 @@
         <v>607</v>
       </c>
       <c r="J181" s="3">
-        <f>I181/$B$173</f>
+        <f t="shared" si="41"/>
         <v>4.47300354450528E-3</v>
       </c>
       <c r="K181" s="2">
         <v>1</v>
       </c>
       <c r="L181" s="3">
-        <f>K181/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M181" s="3">
-        <f>ABS(L181-J181)</f>
+        <f t="shared" si="43"/>
         <v>2.7785060971623751E-2</v>
       </c>
     </row>
     <row r="182" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H182" t="s">
@@ -42993,24 +43050,24 @@
         <v>1173</v>
       </c>
       <c r="J182" s="3">
-        <f>I182/$B$173</f>
+        <f t="shared" si="41"/>
         <v>8.6438767013256885E-3</v>
       </c>
       <c r="K182" s="2">
         <v>1</v>
       </c>
       <c r="L182" s="3">
-        <f>K182/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M182" s="3">
-        <f>ABS(L182-J182)</f>
+        <f t="shared" si="43"/>
         <v>2.3614187814803345E-2</v>
       </c>
     </row>
     <row r="183" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H183" t="s">
@@ -43020,24 +43077,24 @@
         <v>1681</v>
       </c>
       <c r="J183" s="3">
-        <f>I183/$B$173</f>
+        <f t="shared" si="41"/>
         <v>1.2387345895079695E-2</v>
       </c>
       <c r="K183" s="2">
         <v>1</v>
       </c>
       <c r="L183" s="3">
-        <f>K183/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M183" s="3">
-        <f>ABS(L183-J183)</f>
+        <f t="shared" si="43"/>
         <v>1.9870718621049336E-2</v>
       </c>
     </row>
     <row r="184" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H184" t="s">
@@ -43047,24 +43104,24 @@
         <v>2066</v>
       </c>
       <c r="J184" s="3">
-        <f>I184/$B$173</f>
+        <f t="shared" si="41"/>
         <v>1.5224423925779091E-2</v>
       </c>
       <c r="K184" s="2">
         <v>1</v>
       </c>
       <c r="L184" s="3">
-        <f>K184/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M184" s="3">
-        <f>ABS(L184-J184)</f>
+        <f t="shared" si="43"/>
         <v>1.7033640590349938E-2</v>
       </c>
     </row>
     <row r="185" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H185" t="s">
@@ -43074,24 +43131,24 @@
         <v>2322</v>
       </c>
       <c r="J185" s="3">
-        <f>I185/$B$173</f>
+        <f t="shared" si="41"/>
         <v>1.7110896590348038E-2</v>
       </c>
       <c r="K185" s="2">
         <v>1</v>
       </c>
       <c r="L185" s="3">
-        <f>K185/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M185" s="3">
-        <f>ABS(L185-J185)</f>
+        <f t="shared" si="43"/>
         <v>1.5147167925780993E-2</v>
       </c>
     </row>
     <row r="186" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H186" t="s">
@@ -43101,24 +43158,24 @@
         <v>5969</v>
       </c>
       <c r="J186" s="3">
-        <f>I186/$B$173</f>
+        <f t="shared" si="41"/>
         <v>4.398576302660958E-2</v>
       </c>
       <c r="K186" s="2">
         <v>1</v>
       </c>
       <c r="L186" s="3">
-        <f>K186/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M186" s="3">
-        <f>ABS(L186-J186)</f>
+        <f t="shared" si="43"/>
         <v>1.1727698510480548E-2</v>
       </c>
     </row>
     <row r="187" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H187" s="21" t="s">
@@ -43128,24 +43185,24 @@
         <v>3511</v>
       </c>
       <c r="J187" s="3">
-        <f>I187/$B$173</f>
+        <f t="shared" si="41"/>
         <v>2.5872677833209286E-2</v>
       </c>
       <c r="K187" s="2">
         <v>1</v>
       </c>
       <c r="L187" s="3">
-        <f>K187/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M187" s="3">
-        <f>ABS(L187-J187)</f>
+        <f t="shared" si="43"/>
         <v>6.3853866829197449E-3</v>
       </c>
     </row>
     <row r="188" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H188" t="s">
@@ -43155,24 +43212,24 @@
         <v>3804</v>
       </c>
       <c r="J188" s="3">
-        <f>I188/$B$173</f>
+        <f t="shared" si="41"/>
         <v>2.8031804750079218E-2</v>
       </c>
       <c r="K188" s="2">
         <v>1</v>
       </c>
       <c r="L188" s="3">
-        <f>K188/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M188" s="3">
-        <f>ABS(L188-J188)</f>
+        <f t="shared" si="43"/>
         <v>4.2262597660498134E-3</v>
       </c>
     </row>
     <row r="189" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v>Landscape and Nature</v>
       </c>
       <c r="H189" t="s">
@@ -43182,18 +43239,18 @@
         <v>4098</v>
       </c>
       <c r="J189" s="3">
-        <f>I189/$B$173</f>
+        <f t="shared" si="41"/>
         <v>3.0198300700795117E-2</v>
       </c>
       <c r="K189" s="2">
         <v>1</v>
       </c>
       <c r="L189" s="3">
-        <f>K189/$D$173</f>
+        <f t="shared" si="42"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="M189" s="3">
-        <f>ABS(L189-J189)</f>
+        <f t="shared" si="43"/>
         <v>2.0597638153339141E-3</v>
       </c>
     </row>
@@ -43228,7 +43285,7 @@
     </row>
     <row r="192" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" ref="A192:A212" si="23">A191</f>
+        <f t="shared" ref="A192:A212" si="44">A191</f>
         <v>Government and Law</v>
       </c>
       <c r="H192" t="s">
@@ -43238,24 +43295,24 @@
         <v>32840</v>
       </c>
       <c r="J192" s="3">
-        <f>I192/$B$191</f>
+        <f t="shared" ref="J192:J212" si="45">I192/$B$191</f>
         <v>0.13280760287129714</v>
       </c>
       <c r="K192" s="2">
         <v>1</v>
       </c>
       <c r="L192" s="3">
-        <f>K192/$D$191</f>
+        <f t="shared" ref="L192:L212" si="46">K192/$D$191</f>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M192" s="3">
-        <f>ABS(L192-J192)</f>
+        <f t="shared" ref="M192:M212" si="47">ABS(L192-J192)</f>
         <v>0.11319975973404224</v>
       </c>
     </row>
     <row r="193" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H193" t="s">
@@ -43265,24 +43322,24 @@
         <v>7295</v>
       </c>
       <c r="J193" s="3">
-        <f>I193/$B$191</f>
+        <f t="shared" si="45"/>
         <v>2.9501567081184916E-2</v>
       </c>
       <c r="K193" s="2">
         <v>5</v>
       </c>
       <c r="L193" s="3">
-        <f>K193/$D$191</f>
+        <f t="shared" si="46"/>
         <v>9.8039215686274508E-2</v>
       </c>
       <c r="M193" s="3">
-        <f>ABS(L193-J193)</f>
+        <f t="shared" si="47"/>
         <v>6.8537648605089596E-2</v>
       </c>
     </row>
     <row r="194" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H194" t="s">
@@ -43292,24 +43349,24 @@
         <v>68857</v>
       </c>
       <c r="J194" s="3">
-        <f>I194/$B$191</f>
+        <f t="shared" si="45"/>
         <v>0.27846324941866341</v>
       </c>
       <c r="K194" s="2">
         <v>11</v>
       </c>
       <c r="L194" s="3">
-        <f>K194/$D$191</f>
+        <f t="shared" si="46"/>
         <v>0.21568627450980393</v>
       </c>
       <c r="M194" s="3">
-        <f>ABS(L194-J194)</f>
+        <f t="shared" si="47"/>
         <v>6.2776974908859473E-2</v>
       </c>
     </row>
     <row r="195" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H195" t="s">
@@ -43319,24 +43376,24 @@
         <v>10974</v>
       </c>
       <c r="J195" s="3">
-        <f>I195/$B$191</f>
+        <f t="shared" si="45"/>
         <v>4.437973915680922E-2</v>
       </c>
       <c r="K195" s="2">
         <v>4</v>
       </c>
       <c r="L195" s="3">
-        <f>K195/$D$191</f>
+        <f t="shared" si="46"/>
         <v>7.8431372549019607E-2</v>
       </c>
       <c r="M195" s="3">
-        <f>ABS(L195-J195)</f>
+        <f t="shared" si="47"/>
         <v>3.4051633392210387E-2</v>
       </c>
     </row>
     <row r="196" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H196" t="s">
@@ -43346,24 +43403,24 @@
         <v>42225</v>
       </c>
       <c r="J196" s="3">
-        <f>I196/$B$191</f>
+        <f t="shared" si="45"/>
         <v>0.17076129814983318</v>
       </c>
       <c r="K196" s="2">
         <v>7</v>
       </c>
       <c r="L196" s="3">
-        <f>K196/$D$191</f>
+        <f t="shared" si="46"/>
         <v>0.13725490196078433</v>
       </c>
       <c r="M196" s="3">
-        <f>ABS(L196-J196)</f>
+        <f t="shared" si="47"/>
         <v>3.3506396189048854E-2</v>
       </c>
     </row>
     <row r="197" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H197" t="s">
@@ -43373,24 +43430,24 @@
         <v>11640</v>
       </c>
       <c r="J197" s="3">
-        <f>I197/$B$191</f>
+        <f t="shared" si="45"/>
         <v>4.7073096754625419E-2</v>
       </c>
       <c r="K197" s="2">
         <v>4</v>
       </c>
       <c r="L197" s="3">
-        <f>K197/$D$191</f>
+        <f t="shared" si="46"/>
         <v>7.8431372549019607E-2</v>
       </c>
       <c r="M197" s="3">
-        <f>ABS(L197-J197)</f>
+        <f t="shared" si="47"/>
         <v>3.1358275794394187E-2</v>
       </c>
     </row>
     <row r="198" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H198" s="21" t="s">
@@ -43400,24 +43457,24 @@
         <v>11873</v>
       </c>
       <c r="J198" s="3">
-        <f>I198/$B$191</f>
+        <f t="shared" si="45"/>
         <v>4.8015367505813367E-2</v>
       </c>
       <c r="K198" s="2">
         <v>1</v>
       </c>
       <c r="L198" s="3">
-        <f>K198/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M198" s="3">
-        <f>ABS(L198-J198)</f>
+        <f t="shared" si="47"/>
         <v>2.8407524368558465E-2</v>
       </c>
     </row>
     <row r="199" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H199" t="s">
@@ -43427,24 +43484,24 @@
         <v>116</v>
       </c>
       <c r="J199" s="3">
-        <f>I199/$B$191</f>
+        <f t="shared" si="45"/>
         <v>4.6911333535537358E-4</v>
       </c>
       <c r="K199" s="2">
         <v>1</v>
       </c>
       <c r="L199" s="3">
-        <f>K199/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M199" s="3">
-        <f>ABS(L199-J199)</f>
+        <f t="shared" si="47"/>
         <v>1.913872980189953E-2</v>
       </c>
     </row>
     <row r="200" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H200" t="s">
@@ -43454,24 +43511,24 @@
         <v>161</v>
       </c>
       <c r="J200" s="3">
-        <f>I200/$B$191</f>
+        <f t="shared" si="45"/>
         <v>6.5109695682944086E-4</v>
       </c>
       <c r="K200" s="2">
         <v>1</v>
       </c>
       <c r="L200" s="3">
-        <f>K200/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M200" s="3">
-        <f>ABS(L200-J200)</f>
+        <f t="shared" si="47"/>
         <v>1.8956746180425459E-2</v>
       </c>
     </row>
     <row r="201" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H201" t="s">
@@ -43481,24 +43538,24 @@
         <v>269</v>
       </c>
       <c r="J201" s="3">
-        <f>I201/$B$191</f>
+        <f t="shared" si="45"/>
         <v>1.0878576483672026E-3</v>
       </c>
       <c r="K201" s="2">
         <v>1</v>
       </c>
       <c r="L201" s="3">
-        <f>K201/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M201" s="3">
-        <f>ABS(L201-J201)</f>
+        <f t="shared" si="47"/>
         <v>1.85199854888877E-2</v>
       </c>
     </row>
     <row r="202" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H202" t="s">
@@ -43508,24 +43565,24 @@
         <v>284</v>
       </c>
       <c r="J202" s="3">
-        <f>I202/$B$191</f>
+        <f t="shared" si="45"/>
         <v>1.1485188555252249E-3</v>
       </c>
       <c r="K202" s="2">
         <v>1</v>
       </c>
       <c r="L202" s="3">
-        <f>K202/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M202" s="3">
-        <f>ABS(L202-J202)</f>
+        <f t="shared" si="47"/>
         <v>1.8459324281729677E-2</v>
       </c>
     </row>
     <row r="203" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H203" t="s">
@@ -43535,24 +43592,24 @@
         <v>9309</v>
       </c>
       <c r="J203" s="3">
-        <f>I203/$B$191</f>
+        <f t="shared" si="45"/>
         <v>3.7646345162268731E-2</v>
       </c>
       <c r="K203" s="2">
         <v>1</v>
       </c>
       <c r="L203" s="3">
-        <f>K203/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M203" s="3">
-        <f>ABS(L203-J203)</f>
+        <f t="shared" si="47"/>
         <v>1.8038502025013829E-2</v>
       </c>
     </row>
     <row r="204" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H204" t="s">
@@ -43562,24 +43619,24 @@
         <v>839</v>
       </c>
       <c r="J204" s="3">
-        <f>I204/$B$191</f>
+        <f t="shared" si="45"/>
         <v>3.3929835203720554E-3</v>
       </c>
       <c r="K204" s="2">
         <v>1</v>
       </c>
       <c r="L204" s="3">
-        <f>K204/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M204" s="3">
-        <f>ABS(L204-J204)</f>
+        <f t="shared" si="47"/>
         <v>1.6214859616882845E-2</v>
       </c>
     </row>
     <row r="205" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H205" t="s">
@@ -43589,24 +43646,24 @@
         <v>1329</v>
       </c>
       <c r="J205" s="3">
-        <f>I205/$B$191</f>
+        <f t="shared" si="45"/>
         <v>5.3745829542007888E-3</v>
       </c>
       <c r="K205" s="2">
         <v>1</v>
       </c>
       <c r="L205" s="3">
-        <f>K205/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M205" s="3">
-        <f>ABS(L205-J205)</f>
+        <f t="shared" si="47"/>
         <v>1.4233260183054113E-2</v>
       </c>
     </row>
     <row r="206" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H206" t="s">
@@ -43616,24 +43673,24 @@
         <v>1342</v>
       </c>
       <c r="J206" s="3">
-        <f>I206/$B$191</f>
+        <f t="shared" si="45"/>
         <v>5.4271560004044081E-3</v>
       </c>
       <c r="K206" s="2">
         <v>1</v>
       </c>
       <c r="L206" s="3">
-        <f>K206/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M206" s="3">
-        <f>ABS(L206-J206)</f>
+        <f t="shared" si="47"/>
         <v>1.4180687136850494E-2</v>
       </c>
     </row>
     <row r="207" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H207" t="s">
@@ -43643,24 +43700,24 @@
         <v>1877</v>
       </c>
       <c r="J207" s="3">
-        <f>I207/$B$191</f>
+        <f t="shared" si="45"/>
         <v>7.5907390557072088E-3</v>
       </c>
       <c r="K207" s="2">
         <v>1</v>
       </c>
       <c r="L207" s="3">
-        <f>K207/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M207" s="3">
-        <f>ABS(L207-J207)</f>
+        <f t="shared" si="47"/>
         <v>1.2017104081547693E-2</v>
       </c>
     </row>
     <row r="208" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H208" t="s">
@@ -43670,24 +43727,24 @@
         <v>2207</v>
       </c>
       <c r="J208" s="3">
-        <f>I208/$B$191</f>
+        <f t="shared" si="45"/>
         <v>8.9252856131837015E-3</v>
       </c>
       <c r="K208" s="2">
         <v>1</v>
       </c>
       <c r="L208" s="3">
-        <f>K208/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M208" s="3">
-        <f>ABS(L208-J208)</f>
+        <f t="shared" si="47"/>
         <v>1.06825575240712E-2</v>
       </c>
     </row>
     <row r="209" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H209" t="s">
@@ -43697,24 +43754,24 @@
         <v>15966</v>
       </c>
       <c r="J209" s="3">
-        <f>I209/$B$191</f>
+        <f t="shared" si="45"/>
         <v>6.4567788898999084E-2</v>
       </c>
       <c r="K209" s="2">
         <v>3</v>
       </c>
       <c r="L209" s="3">
-        <f>K209/$D$191</f>
+        <f t="shared" si="46"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="M209" s="3">
-        <f>ABS(L209-J209)</f>
+        <f t="shared" si="47"/>
         <v>5.7442594872343794E-3</v>
       </c>
     </row>
     <row r="210" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H210" t="s">
@@ -43724,24 +43781,24 @@
         <v>15939</v>
       </c>
       <c r="J210" s="3">
-        <f>I210/$B$191</f>
+        <f t="shared" si="45"/>
         <v>6.4458598726114646E-2</v>
       </c>
       <c r="K210" s="2">
         <v>3</v>
       </c>
       <c r="L210" s="3">
-        <f>K210/$D$191</f>
+        <f t="shared" si="46"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="M210" s="3">
-        <f>ABS(L210-J210)</f>
+        <f t="shared" si="47"/>
         <v>5.6350693143499414E-3</v>
       </c>
     </row>
     <row r="211" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H211" t="s">
@@ -43751,24 +43808,24 @@
         <v>6007</v>
       </c>
       <c r="J211" s="3">
-        <f>I211/$B$191</f>
+        <f t="shared" si="45"/>
         <v>2.4292791426549387E-2</v>
       </c>
       <c r="K211" s="2">
         <v>1</v>
       </c>
       <c r="L211" s="3">
-        <f>K211/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M211" s="3">
-        <f>ABS(L211-J211)</f>
+        <f t="shared" si="47"/>
         <v>4.6849482892944855E-3</v>
       </c>
     </row>
     <row r="212" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>Government and Law</v>
       </c>
       <c r="H212" t="s">
@@ -43778,18 +43835,18 @@
         <v>5926</v>
       </c>
       <c r="J212" s="3">
-        <f>I212/$B$191</f>
+        <f t="shared" si="45"/>
         <v>2.3965220907896066E-2</v>
       </c>
       <c r="K212" s="2">
         <v>1</v>
       </c>
       <c r="L212" s="3">
-        <f>K212/$D$191</f>
+        <f t="shared" si="46"/>
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="M212" s="3">
-        <f>ABS(L212-J212)</f>
+        <f t="shared" si="47"/>
         <v>4.3573777706411645E-3</v>
       </c>
     </row>
@@ -43988,7 +44045,7 @@
     </row>
     <row r="222" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
-        <f t="shared" ref="A222:A229" si="24">A221</f>
+        <f t="shared" ref="A222:A229" si="48">A221</f>
         <v>Science and Technology</v>
       </c>
       <c r="H222" s="21" t="s">
@@ -43998,24 +44055,24 @@
         <v>20800</v>
       </c>
       <c r="J222" s="3">
-        <f t="shared" ref="J222:J229" si="25">I222/$B$221</f>
+        <f t="shared" ref="J222:J229" si="49">I222/$B$221</f>
         <v>0.66825162243783331</v>
       </c>
       <c r="K222" s="2">
         <v>1</v>
       </c>
       <c r="L222" s="3">
-        <f t="shared" ref="L222:L229" si="26">K222/$D$221</f>
+        <f t="shared" ref="L222:L229" si="50">K222/$D$221</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="M222" s="3">
-        <f t="shared" ref="M222:M229" si="27">ABS(L222-J222)</f>
+        <f t="shared" ref="M222:M229" si="51">ABS(L222-J222)</f>
         <v>0.55714051132672227</v>
       </c>
     </row>
     <row r="223" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H223" t="s">
@@ -44025,24 +44082,24 @@
         <v>282</v>
       </c>
       <c r="J223" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>9.0599498811283173E-3</v>
       </c>
       <c r="K223" s="2">
         <v>1</v>
       </c>
       <c r="L223" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M223" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.10205116122998278</v>
       </c>
     </row>
     <row r="224" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H224" t="s">
@@ -44052,24 +44109,24 @@
         <v>3886</v>
       </c>
       <c r="J224" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>0.12484739446122213</v>
       </c>
       <c r="K224" s="2">
         <v>2</v>
       </c>
       <c r="L224" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="M224" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>9.737482776100008E-2</v>
       </c>
     </row>
     <row r="225" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H225" t="s">
@@ -44079,24 +44136,24 @@
         <v>492</v>
       </c>
       <c r="J225" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>1.5806721069202594E-2</v>
       </c>
       <c r="K225" s="2">
         <v>1</v>
       </c>
       <c r="L225" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M225" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>9.5304390041908507E-2</v>
       </c>
     </row>
     <row r="226" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H226" t="s">
@@ -44106,24 +44163,24 @@
         <v>867</v>
       </c>
       <c r="J226" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>2.785452676219238E-2</v>
       </c>
       <c r="K226" s="2">
         <v>1</v>
       </c>
       <c r="L226" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M226" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>8.3256584348918722E-2</v>
       </c>
     </row>
     <row r="227" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H227" t="s">
@@ -44133,24 +44190,24 @@
         <v>1420</v>
       </c>
       <c r="J227" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>4.5621024224121315E-2</v>
       </c>
       <c r="K227" s="2">
         <v>1</v>
       </c>
       <c r="L227" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M227" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>6.549008688698979E-2</v>
       </c>
     </row>
     <row r="228" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H228" t="s">
@@ -44160,24 +44217,24 @@
         <v>1552</v>
       </c>
       <c r="J228" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>4.9861851828053715E-2</v>
       </c>
       <c r="K228" s="2">
         <v>1</v>
       </c>
       <c r="L228" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M228" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>6.124925928305739E-2</v>
       </c>
     </row>
     <row r="229" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>Science and Technology</v>
       </c>
       <c r="H229" t="s">
@@ -44187,18 +44244,18 @@
         <v>1827</v>
       </c>
       <c r="J229" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>5.8696909336246224E-2</v>
       </c>
       <c r="K229" s="2">
         <v>1</v>
       </c>
       <c r="L229" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="M229" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>5.2414201774864881E-2</v>
       </c>
     </row>
@@ -44233,7 +44290,7 @@
     </row>
     <row r="232" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
-        <f t="shared" ref="A232:A239" si="28">A231</f>
+        <f t="shared" ref="A232:A239" si="52">A231</f>
         <v>Arts and Crafts</v>
       </c>
       <c r="H232" t="s">
@@ -44243,24 +44300,24 @@
         <v>3994</v>
       </c>
       <c r="J232" s="3">
-        <f>I232/$B$231</f>
+        <f t="shared" ref="J232:J239" si="53">I232/$B$231</f>
         <v>2.7362161569659104E-2</v>
       </c>
       <c r="K232" s="2">
         <v>11</v>
       </c>
       <c r="L232" s="3">
-        <f>K232/$D$231</f>
+        <f t="shared" ref="L232:L239" si="54">K232/$D$231</f>
         <v>0.44</v>
       </c>
       <c r="M232" s="3">
-        <f>ABS(L232-J232)</f>
+        <f t="shared" ref="M232:M239" si="55">ABS(L232-J232)</f>
         <v>0.41263783843034091</v>
       </c>
     </row>
     <row r="233" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H233" t="s">
@@ -44270,24 +44327,24 @@
         <v>80102</v>
       </c>
       <c r="J233" s="3">
-        <f>I233/$B$231</f>
+        <f t="shared" si="53"/>
         <v>0.54876411268223169</v>
       </c>
       <c r="K233" s="2">
         <v>6</v>
       </c>
       <c r="L233" s="3">
-        <f>K233/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.24</v>
       </c>
       <c r="M233" s="3">
-        <f>ABS(L233-J233)</f>
+        <f t="shared" si="55"/>
         <v>0.3087641126822317</v>
       </c>
     </row>
     <row r="234" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H234" t="s">
@@ -44297,24 +44354,24 @@
         <v>27851</v>
       </c>
       <c r="J234" s="3">
-        <f>I234/$B$231</f>
+        <f t="shared" si="53"/>
         <v>0.19080209360955827</v>
       </c>
       <c r="K234" s="2">
         <v>2</v>
       </c>
       <c r="L234" s="3">
-        <f>K234/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.08</v>
       </c>
       <c r="M234" s="3">
-        <f>ABS(L234-J234)</f>
+        <f t="shared" si="55"/>
         <v>0.11080209360955827</v>
       </c>
     </row>
     <row r="235" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H235" t="s">
@@ -44324,24 +44381,24 @@
         <v>2386</v>
       </c>
       <c r="J235" s="3">
-        <f>I235/$B$231</f>
+        <f t="shared" si="53"/>
         <v>1.6346048448975119E-2</v>
       </c>
       <c r="K235" s="2">
         <v>2</v>
       </c>
       <c r="L235" s="3">
-        <f>K235/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.08</v>
       </c>
       <c r="M235" s="3">
-        <f>ABS(L235-J235)</f>
+        <f t="shared" si="55"/>
         <v>6.3653951551024879E-2</v>
       </c>
     </row>
     <row r="236" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H236" s="21" t="s">
@@ -44351,24 +44408,24 @@
         <v>14088</v>
       </c>
       <c r="J236" s="3">
-        <f>I236/$B$231</f>
+        <f t="shared" si="53"/>
         <v>9.6514304505097001E-2</v>
       </c>
       <c r="K236" s="2">
         <v>1</v>
       </c>
       <c r="L236" s="3">
-        <f>K236/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.04</v>
       </c>
       <c r="M236" s="3">
-        <f>ABS(L236-J236)</f>
+        <f t="shared" si="55"/>
         <v>5.6514304505097E-2</v>
       </c>
     </row>
     <row r="237" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H237" t="s">
@@ -44378,24 +44435,24 @@
         <v>13502</v>
       </c>
       <c r="J237" s="3">
-        <f>I237/$B$231</f>
+        <f t="shared" si="53"/>
         <v>9.24997259673353E-2</v>
       </c>
       <c r="K237" s="2">
         <v>1</v>
       </c>
       <c r="L237" s="3">
-        <f>K237/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.04</v>
       </c>
       <c r="M237" s="3">
-        <f>ABS(L237-J237)</f>
+        <f t="shared" si="55"/>
         <v>5.2499725967335299E-2</v>
       </c>
     </row>
     <row r="238" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H238" t="s">
@@ -44405,24 +44462,24 @@
         <v>2073</v>
       </c>
       <c r="J238" s="3">
-        <f>I238/$B$231</f>
+        <f t="shared" si="53"/>
         <v>1.4201742847747452E-2</v>
       </c>
       <c r="K238" s="2">
         <v>1</v>
       </c>
       <c r="L238" s="3">
-        <f>K238/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.04</v>
       </c>
       <c r="M238" s="3">
-        <f>ABS(L238-J238)</f>
+        <f t="shared" si="55"/>
         <v>2.5798257152252549E-2</v>
       </c>
     </row>
     <row r="239" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>Arts and Crafts</v>
       </c>
       <c r="H239" t="s">
@@ -44432,18 +44489,18 @@
         <v>1972</v>
       </c>
       <c r="J239" s="3">
-        <f>I239/$B$231</f>
+        <f t="shared" si="53"/>
         <v>1.3509810369396032E-2</v>
       </c>
       <c r="K239" s="2">
         <v>1</v>
       </c>
       <c r="L239" s="3">
-        <f>K239/$D$231</f>
+        <f t="shared" si="54"/>
         <v>0.04</v>
       </c>
       <c r="M239" s="3">
-        <f>ABS(L239-J239)</f>
+        <f t="shared" si="55"/>
         <v>2.6490189630603969E-2</v>
       </c>
     </row>
@@ -44571,4 +44628,1374 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856D7AAF-EF3D-4D28-967D-6BD2596490AE}">
+  <dimension ref="A1:H212"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" style="23" customWidth="1"/>
+    <col min="7" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="33">
+        <v>115444</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.73775090905605156</v>
+      </c>
+      <c r="D2" s="33">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F2" s="34">
+        <v>0.67108424238938491</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="33">
+        <v>85334</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.62882913421221343</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.59657106969608442</v>
+      </c>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B4" s="33">
+        <v>20800</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.66825162243783331</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.55714051132672227</v>
+      </c>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="31">
+        <v>59265</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.20834358675094389</v>
+      </c>
+      <c r="D5" s="31">
+        <v>45</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.66176470588235292</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.45342111913140903</v>
+      </c>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1641</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.6253810975609756</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.42538109756097559</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3994</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2.7362161569659104E-2</v>
+      </c>
+      <c r="D7" s="31">
+        <v>11</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.41263783843034091</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1106557</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.37154554312694621</v>
+      </c>
+      <c r="D8" s="33">
+        <v>4</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.32660172290222711</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="33">
+        <v>80102</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.54876411268223169</v>
+      </c>
+      <c r="D9" s="33">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.24</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0.3087641126822317</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="33">
+        <v>158187</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.55609967025008966</v>
+      </c>
+      <c r="D10" s="33">
+        <v>17</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.30609967025008966</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="33">
+        <v>853926</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.28672034017246345</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.2754843851162837</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="33">
+        <v>848333</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.28484239423501151</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.27360643917883176</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="31">
+        <v>14445</v>
+      </c>
+      <c r="C13" s="32">
+        <v>9.2311526639016872E-2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>5</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.24102180669431644</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="31">
+        <v>4743</v>
+      </c>
+      <c r="C14" s="32">
+        <v>3.0310389120723921E-2</v>
+      </c>
+      <c r="D14" s="31">
+        <v>4</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.23635627754594274</v>
+      </c>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="33">
+        <v>73988</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0.32709830013926039</v>
+      </c>
+      <c r="D15" s="33">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0.21598718902814928</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33">
+        <v>17375</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0.43962856130762612</v>
+      </c>
+      <c r="D16" s="33">
+        <v>11</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.20558600811613675</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="31">
+        <v>11854</v>
+      </c>
+      <c r="C17" s="32">
+        <v>8.7352527210157474E-2</v>
+      </c>
+      <c r="D17" s="31">
+        <v>9</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.20297005343500385</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B18" s="33">
+        <v>13165</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0.21069056573577657</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34">
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0.18895143530099395</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="31">
+        <v>71456</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2.3992580887996794E-2</v>
+      </c>
+      <c r="D19" s="31">
+        <v>18</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.20224719101123595</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.17825461012323915</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="31">
+        <v>132160</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0.58427463029686777</v>
+      </c>
+      <c r="D20" s="31">
+        <v>48</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.17763013160789409</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="31">
+        <v>11133</v>
+      </c>
+      <c r="C21" s="32">
+        <v>3.7380962134190032E-3</v>
+      </c>
+      <c r="D21" s="31">
+        <v>16</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.1797752808988764</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.1760371846854574</v>
+      </c>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="31">
+        <v>11989</v>
+      </c>
+      <c r="C22" s="32">
+        <v>8.8347346779363761E-2</v>
+      </c>
+      <c r="D22" s="31">
+        <v>8</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.16971716934966849</v>
+      </c>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>936</v>
+      </c>
+      <c r="B23" s="31">
+        <v>476</v>
+      </c>
+      <c r="C23" s="32">
+        <v>9.5402252775884881E-3</v>
+      </c>
+      <c r="D23" s="31">
+        <v>5</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.16903120329384008</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>982</v>
+      </c>
+      <c r="B24" s="33">
+        <v>47528</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0.16649793138721419</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1</v>
+      </c>
+      <c r="E24" s="34">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.15383970353911292</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="31">
+        <v>11607</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3.8972498651894702E-3</v>
+      </c>
+      <c r="D25" s="31">
+        <v>14</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.15340612092132738</v>
+      </c>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="31">
+        <v>147</v>
+      </c>
+      <c r="C26" s="32">
+        <v>5.6021341463414635E-2</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.14397865853658537</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="33">
+        <v>18205</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.20027723077261575</v>
+      </c>
+      <c r="D27" s="33">
+        <v>2</v>
+      </c>
+      <c r="E27" s="34">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.14313437362975862</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="31">
+        <v>8702</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0.22018116492080361</v>
+      </c>
+      <c r="D28" s="31">
+        <v>17</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.36170212765957449</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.14152096273877088</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="31">
+        <v>158</v>
+      </c>
+      <c r="C29" s="32">
+        <v>6.0213414634146339E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.13978658536585367</v>
+      </c>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B30" s="33">
+        <v>42125</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0.14757038713361381</v>
+      </c>
+      <c r="D30" s="33">
+        <v>1</v>
+      </c>
+      <c r="E30" s="34">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.13491215928551253</v>
+      </c>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="B31" s="33">
+        <v>29526</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0.59177456207159174</v>
+      </c>
+      <c r="D31" s="33">
+        <v>13</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.12748884778587743</v>
+      </c>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="31">
+        <v>218</v>
+      </c>
+      <c r="C32" s="32">
+        <v>8.3079268292682931E-2</v>
+      </c>
+      <c r="D32" s="31">
+        <v>1</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.11692073170731708</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="B33" s="31">
+        <v>42883</v>
+      </c>
+      <c r="C33" s="32">
+        <v>0.15022577831337119</v>
+      </c>
+      <c r="D33" s="31">
+        <v>21</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.11559700649675536</v>
+      </c>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="33">
+        <v>32840</v>
+      </c>
+      <c r="C34" s="34">
+        <v>0.13280760287129714</v>
+      </c>
+      <c r="D34" s="33">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="F34" s="34">
+        <v>0.11319975973404224</v>
+      </c>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="B35" s="31">
+        <v>43799</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.15343466791846058</v>
+      </c>
+      <c r="D35" s="31">
+        <v>21</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0.26582278481012656</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.11238811689166597</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="33">
+        <v>27851</v>
+      </c>
+      <c r="C36" s="34">
+        <v>0.19080209360955827</v>
+      </c>
+      <c r="D36" s="33">
+        <v>2</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0.11080209360955827</v>
+      </c>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="31">
+        <v>556</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0.39404677533664068</v>
+      </c>
+      <c r="D37" s="31">
+        <v>1</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.10595322466335932</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B38" s="33">
+        <v>855</v>
+      </c>
+      <c r="C38" s="34">
+        <v>0.60595322466335932</v>
+      </c>
+      <c r="D38" s="33">
+        <v>1</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.10595322466335932</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="31">
+        <v>282</v>
+      </c>
+      <c r="C39" s="32">
+        <v>9.0599498811283173E-3</v>
+      </c>
+      <c r="D39" s="31">
+        <v>1</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.10205116122998278</v>
+      </c>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="23"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="23"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="23"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="23"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="23"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="23"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="23"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="23"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="23"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="23"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="23"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="23"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="23"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="23"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="23"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="23"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="23"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="23"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="23"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="23"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="23"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="23"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="23"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="23"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="23"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="23"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="23"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="23"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="23"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="23"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="23"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="23"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="23"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="23"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="23"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="23"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="23"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="23"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="23"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="23"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="23"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="23"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="23"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="23"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="23"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="23"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="23"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="23"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="23"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="23"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="23"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="23"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="23"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="23"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="23"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="23"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="23"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="23"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="23"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="23"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="23"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="23"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="23"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="23"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="23"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="23"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="23"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="23"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="23"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="23"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="23"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="23"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="23"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="23"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="23"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="23"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="23"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="23"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="23"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="23"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="23"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="23"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="23"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="23"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="23"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="23"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="23"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="23"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="23"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="23"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="23"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="23"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="23"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="23"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="23"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="23"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="23"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="23"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="23"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="23"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="23"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="23"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="23"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="23"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="23"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="23"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="23"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="23"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="23"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="23"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G207" s="23"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="23"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="23"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="23"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="23"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="23"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
+    <sortCondition descending="1" ref="F2:F39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>